--- a/data/Excel/Legacy_and_Hero_Base_stats.xlsx
+++ b/data/Excel/Legacy_and_Hero_Base_stats.xlsx
@@ -472,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -1035,10 +1035,10 @@
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
@@ -1347,10 +1347,10 @@
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
